--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1973,6 +2021,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2014,6 +2063,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2096,6 +2147,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2137,6 +2189,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2178,6 +2231,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2217,6 +2271,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,6 +2311,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2295,6 +2351,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2334,6 +2391,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2373,6 +2431,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2412,6 +2471,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2451,6 +2511,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,6 +2551,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2529,6 +2591,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2568,6 +2631,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2607,6 +2671,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2646,6 +2711,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2685,6 +2751,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2724,6 +2791,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2763,6 +2831,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2802,6 +2871,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2841,6 +2911,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2880,6 +2951,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2919,6 +2991,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2960,6 +3033,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3001,6 +3075,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3042,6 +3117,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,6 +3159,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,6 +3201,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3163,6 +3241,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3204,6 +3283,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3245,6 +3325,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3284,6 +3365,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3323,6 +3405,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3362,6 +3445,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3401,6 +3485,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3440,6 +3525,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3479,6 +3565,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3518,6 +3605,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3557,6 +3645,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3596,6 +3685,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3635,6 +3725,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3674,6 +3765,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3713,6 +3805,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3752,6 +3845,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3791,6 +3885,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3830,6 +3925,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3869,6 +3965,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3910,6 +4007,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3949,6 +4047,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3988,6 +4087,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4027,6 +4127,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4066,6 +4167,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4105,6 +4207,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4144,6 +4247,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4183,6 +4287,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4222,6 +4327,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4261,6 +4367,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4300,6 +4407,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4341,6 +4449,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4382,6 +4491,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4423,6 +4533,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-547568.3705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-547567.3731</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-545049.0501</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-545513.9205</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-544783.9205</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-542542.2784000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-542799.371</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-554672.13687494</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-554721.86247494</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-554746.4372749401</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-557366.8182749401</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-558857.0439749401</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-560063.0439749401</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-560765.2002749401</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-560765.2002749401</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-559243.1759749401</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-559243.1759749401</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-559551.1759749401</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-561986.2283749401</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-564747.1674749401</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-564722.1674749401</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-564722.1674749401</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-569672.6358749401</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-556600.10877327</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,21 @@
         <v>-558647.9952732701</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4417,21 @@
         <v>-558647.9952732701</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4456,21 @@
         <v>-555218.6433732701</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4495,21 @@
         <v>-555218.6433732701</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4534,21 @@
         <v>-555452.77427327</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4575,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4610,21 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4651,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4688,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,24 +4723,19 @@
         <v>-555338.6249732701</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>956</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5106,24 +4760,19 @@
         <v>-557023.6249732701</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>954</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,24 +4797,21 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
         <v>952.2</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,24 +4836,21 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
         <v>951</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5232,24 +4875,21 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>956</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5274,24 +4914,21 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
         <v>951.1</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5316,26 +4953,23 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
         <v>954</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-11529.4997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-547568.3705</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-547567.3731</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-545049.0501</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-545049.0501</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-545513.9205</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-544783.9205</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-543853.4124</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-542542.2784000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-542799.371</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-554672.13687494</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-554721.86247494</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-554746.4372749401</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-557366.8182749401</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-558857.0439749401</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-560063.0439749401</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,11 +2728,17 @@
         <v>-560063.0439749401</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>958</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2763,9 +2769,15 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>958</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2796,9 +2808,15 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>957</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2829,9 +2847,15 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>957</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2862,9 +2886,15 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>958</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2895,9 +2925,15 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>958</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2928,9 +2964,15 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>957</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2961,9 +3003,15 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>956.1</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2994,9 +3042,15 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>956</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3027,9 +3081,15 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>957</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3060,9 +3120,15 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>957</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3093,9 +3159,15 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>956</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3126,9 +3198,15 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>953</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3159,9 +3237,15 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>953</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3192,9 +3276,15 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>953</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3313,17 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>953</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3352,17 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>952</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3391,17 @@
         <v>-573801.0415749401</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>952</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3430,17 @@
         <v>-569744.0292749401</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>953</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3469,17 @@
         <v>-570396.6567749401</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>957</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3508,17 @@
         <v>-572374.6567749401</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>955</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3547,17 @@
         <v>-568019.0745749401</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>953</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3586,17 @@
         <v>-569734.0061749402</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>955</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3625,17 @@
         <v>-566913.5199749401</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>953</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3664,17 @@
         <v>-568489.6463749401</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>955</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3703,17 @@
         <v>-565053.84987494</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>954</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3742,17 @@
         <v>-567554.97907494</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>958</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3781,17 @@
         <v>-567554.97907494</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>956</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3820,17 @@
         <v>-569359.00977494</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>956</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3859,17 @@
         <v>-566352.23227494</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>955</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3898,17 @@
         <v>-567954.23227494</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>958</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3937,17 @@
         <v>-567954.23227494</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>956</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3976,17 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>956</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4015,17 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>953</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4054,17 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>953</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4093,17 @@
         <v>-565089.7602749401</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>953</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4132,17 @@
         <v>-565089.7602749401</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>954</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4171,17 @@
         <v>-561122.02487494</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>954</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4210,17 @@
         <v>-561122.02487494</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>959</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4249,17 @@
         <v>-561517.5208749401</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>959</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4292,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4329,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4366,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4403,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4440,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4477,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4514,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4547,15 @@
         <v>-556600.10877327</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4588,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4625,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +4658,13 @@
         <v>-558647.9952732701</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4417,11 +4695,9 @@
         <v>-558647.9952732701</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4456,11 +4732,9 @@
         <v>-555218.6433732701</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4495,11 +4769,9 @@
         <v>-555218.6433732701</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4534,11 +4806,9 @@
         <v>-555452.77427327</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4610,7 +4880,7 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>954</v>
@@ -4649,9 +4919,11 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>955</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4686,9 +4958,11 @@
         <v>-553458.6249732701</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>955</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4723,9 +4997,11 @@
         <v>-555338.6249732701</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>956</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4760,9 +5036,11 @@
         <v>-557023.6249732701</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>954</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -4797,7 +5075,7 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>952.2</v>
@@ -4836,7 +5114,7 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>951</v>
@@ -4875,7 +5153,7 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>956</v>
@@ -4914,7 +5192,7 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>951.1</v>
@@ -4953,7 +5231,7 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>954</v>
@@ -4970,6 +5248,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-11529.4997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-547568.3705</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-547567.3731</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-545049.0501</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-545049.0501</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-545513.9205</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-544783.9205</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-543853.4124</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-542799.371</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-548260.2515749402</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-548230.2053749402</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2728,17 +2728,11 @@
         <v>-560063.0439749401</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2767,17 +2761,11 @@
         <v>-560765.2002749401</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2806,17 +2794,11 @@
         <v>-560765.2002749401</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2845,17 +2827,11 @@
         <v>-559243.1759749401</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,17 +2860,11 @@
         <v>-559243.1759749401</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2923,17 +2893,11 @@
         <v>-559551.1759749401</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2962,17 +2926,11 @@
         <v>-561986.2283749401</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3001,17 +2959,11 @@
         <v>-564747.1674749401</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>956.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3040,17 +2992,11 @@
         <v>-564722.1674749401</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3079,17 +3025,11 @@
         <v>-564722.1674749401</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3118,17 +3058,11 @@
         <v>-569672.6358749401</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3157,17 +3091,11 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3196,17 +3124,11 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3235,17 +3157,11 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3282,7 +3198,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3391,11 +3307,9 @@
         <v>-573801.0415749401</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3430,11 +3344,9 @@
         <v>-569744.0292749401</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3469,11 +3381,9 @@
         <v>-570396.6567749401</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3508,11 +3418,9 @@
         <v>-572374.6567749401</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3547,11 +3455,9 @@
         <v>-568019.0745749401</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3586,11 +3492,9 @@
         <v>-569734.0061749402</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3625,11 +3529,9 @@
         <v>-566913.5199749401</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3664,11 +3566,9 @@
         <v>-568489.6463749401</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3703,11 +3603,9 @@
         <v>-565053.84987494</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3742,11 +3640,9 @@
         <v>-567554.97907494</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3781,11 +3677,9 @@
         <v>-567554.97907494</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3820,11 +3714,9 @@
         <v>-569359.00977494</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3859,11 +3751,9 @@
         <v>-566352.23227494</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3898,11 +3788,9 @@
         <v>-567954.23227494</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3937,11 +3825,9 @@
         <v>-567954.23227494</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3976,11 +3862,9 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4015,11 +3899,9 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4054,11 +3936,9 @@
         <v>-568801.95047494</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4093,11 +3973,9 @@
         <v>-565089.7602749401</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4132,11 +4010,9 @@
         <v>-565089.7602749401</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4171,11 +4047,9 @@
         <v>-561122.02487494</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4210,11 +4084,9 @@
         <v>-561122.02487494</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4249,11 +4121,9 @@
         <v>-561517.5208749401</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4880,11 +4750,9 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4919,11 +4787,9 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4958,11 +4824,9 @@
         <v>-553458.6249732701</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4997,11 +4861,9 @@
         <v>-555338.6249732701</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5036,11 +4898,9 @@
         <v>-557023.6249732701</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5075,11 +4935,9 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>952.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5114,11 +4972,9 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5153,11 +5009,9 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5192,11 +5046,9 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>951.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5231,11 +5083,9 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5248,6 +5098,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -451,7 +451,7 @@
         <v>-11529.4997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-548260.2515749402</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-548230.2053749402</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-552755.0541749401</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-552720.0541749401</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-552709.3028749401</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-552769.49287494</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-552769.49287494</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-554592.13687494</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-554672.13687494</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-554721.86247494</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-554746.4372749401</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-564747.1674749401</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3190,1612 +3190,1436 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>953</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="C86" t="n">
+        <v>952</v>
+      </c>
+      <c r="D86" t="n">
+        <v>953</v>
+      </c>
+      <c r="E86" t="n">
+        <v>952</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1776</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-575646.9305749401</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>952</v>
+      </c>
+      <c r="C87" t="n">
+        <v>952</v>
+      </c>
+      <c r="D87" t="n">
+        <v>953</v>
+      </c>
+      <c r="E87" t="n">
+        <v>950.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4481.1867</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-575646.9305749401</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>952</v>
+      </c>
+      <c r="C88" t="n">
+        <v>953</v>
+      </c>
+      <c r="D88" t="n">
+        <v>953</v>
+      </c>
+      <c r="E88" t="n">
+        <v>952</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1845.889</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-573801.0415749401</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>953</v>
+      </c>
+      <c r="C89" t="n">
+        <v>957</v>
+      </c>
+      <c r="D89" t="n">
+        <v>957</v>
+      </c>
+      <c r="E89" t="n">
+        <v>953</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4057.0123</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-569744.0292749401</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>954</v>
+      </c>
+      <c r="C90" t="n">
+        <v>955</v>
+      </c>
+      <c r="D90" t="n">
+        <v>955.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>954</v>
+      </c>
+      <c r="F90" t="n">
+        <v>652.6275000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-570396.6567749401</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>953</v>
+      </c>
+      <c r="D91" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>952</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-572374.6567749401</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>953</v>
+      </c>
+      <c r="C92" t="n">
+        <v>955</v>
+      </c>
+      <c r="D92" t="n">
+        <v>957</v>
+      </c>
+      <c r="E92" t="n">
+        <v>953</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4355.5822</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-568019.0745749401</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>953.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>953</v>
+      </c>
+      <c r="D93" t="n">
+        <v>954</v>
+      </c>
+      <c r="E93" t="n">
+        <v>953</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1714.9316</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-569734.0061749402</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>953</v>
+      </c>
+      <c r="C94" t="n">
+        <v>955</v>
+      </c>
+      <c r="D94" t="n">
+        <v>956</v>
+      </c>
+      <c r="E94" t="n">
+        <v>953</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2820.4862</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-566913.5199749401</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>956</v>
+      </c>
+      <c r="C95" t="n">
+        <v>954</v>
+      </c>
+      <c r="D95" t="n">
+        <v>956</v>
+      </c>
+      <c r="E95" t="n">
+        <v>954</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1576.1264</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-568489.6463749401</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>954</v>
+      </c>
+      <c r="C96" t="n">
+        <v>958</v>
+      </c>
+      <c r="D96" t="n">
+        <v>958</v>
+      </c>
+      <c r="E96" t="n">
+        <v>954</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3435.7965</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-565053.84987494</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>955</v>
+      </c>
+      <c r="C97" t="n">
+        <v>956</v>
+      </c>
+      <c r="D97" t="n">
+        <v>958</v>
+      </c>
+      <c r="E97" t="n">
+        <v>955</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2501.1292</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-567554.97907494</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>955</v>
+      </c>
+      <c r="C98" t="n">
+        <v>956</v>
+      </c>
+      <c r="D98" t="n">
+        <v>958</v>
+      </c>
+      <c r="E98" t="n">
+        <v>955</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5104.9296</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-567554.97907494</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>955</v>
+      </c>
+      <c r="C99" t="n">
+        <v>955</v>
+      </c>
+      <c r="D99" t="n">
+        <v>958</v>
+      </c>
+      <c r="E99" t="n">
+        <v>954</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1804.0307</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-569359.00977494</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>954</v>
+      </c>
+      <c r="C100" t="n">
+        <v>958</v>
+      </c>
+      <c r="D100" t="n">
+        <v>958</v>
+      </c>
+      <c r="E100" t="n">
+        <v>954</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3006.7775</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-566352.23227494</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>956</v>
+      </c>
+      <c r="C101" t="n">
+        <v>956</v>
+      </c>
+      <c r="D101" t="n">
+        <v>956</v>
+      </c>
+      <c r="E101" t="n">
+        <v>955</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1602</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-567954.23227494</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>956</v>
+      </c>
+      <c r="C102" t="n">
+        <v>956</v>
+      </c>
+      <c r="D102" t="n">
+        <v>956</v>
+      </c>
+      <c r="E102" t="n">
+        <v>954</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1519</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-567954.23227494</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>956</v>
+      </c>
+      <c r="C103" t="n">
+        <v>953</v>
+      </c>
+      <c r="D103" t="n">
+        <v>956</v>
+      </c>
+      <c r="E103" t="n">
+        <v>953</v>
+      </c>
+      <c r="F103" t="n">
+        <v>847.7182</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-568801.95047494</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>953</v>
+      </c>
+      <c r="C104" t="n">
+        <v>953</v>
+      </c>
+      <c r="D104" t="n">
+        <v>953</v>
+      </c>
+      <c r="E104" t="n">
+        <v>953</v>
+      </c>
+      <c r="F104" t="n">
+        <v>903.0958000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-568801.95047494</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>953</v>
+      </c>
+      <c r="C105" t="n">
+        <v>953</v>
+      </c>
+      <c r="D105" t="n">
+        <v>953</v>
+      </c>
+      <c r="E105" t="n">
+        <v>953</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1896.4616</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-568801.95047494</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>953</v>
+      </c>
+      <c r="C106" t="n">
+        <v>954</v>
+      </c>
+      <c r="D106" t="n">
+        <v>954</v>
+      </c>
+      <c r="E106" t="n">
+        <v>953</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3712.1902</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-565089.7602749401</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>954</v>
+      </c>
+      <c r="C107" t="n">
+        <v>954</v>
+      </c>
+      <c r="D107" t="n">
+        <v>954.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>954</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1642.7988</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-565089.7602749401</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>954</v>
+      </c>
+      <c r="C108" t="n">
+        <v>959</v>
+      </c>
+      <c r="D108" t="n">
+        <v>959</v>
+      </c>
+      <c r="E108" t="n">
+        <v>954</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3967.7354</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-561122.02487494</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>955</v>
+      </c>
+      <c r="C109" t="n">
+        <v>959</v>
+      </c>
+      <c r="D109" t="n">
+        <v>959</v>
+      </c>
+      <c r="E109" t="n">
+        <v>955</v>
+      </c>
+      <c r="F109" t="n">
+        <v>523.953</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-561122.02487494</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>958</v>
+      </c>
+      <c r="C110" t="n">
+        <v>958</v>
+      </c>
+      <c r="D110" t="n">
+        <v>958</v>
+      </c>
+      <c r="E110" t="n">
+        <v>958</v>
+      </c>
+      <c r="F110" t="n">
+        <v>395.496</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-561517.5208749401</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>959</v>
+      </c>
+      <c r="C111" t="n">
+        <v>959</v>
+      </c>
+      <c r="D111" t="n">
+        <v>959</v>
+      </c>
+      <c r="E111" t="n">
+        <v>959</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2175.5669</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-559341.9539749401</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>959</v>
+      </c>
+      <c r="C112" t="n">
+        <v>959</v>
+      </c>
+      <c r="D112" t="n">
+        <v>959</v>
+      </c>
+      <c r="E112" t="n">
+        <v>959</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1195</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-559341.9539749401</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>959</v>
+      </c>
+      <c r="C113" t="n">
+        <v>960</v>
+      </c>
+      <c r="D113" t="n">
+        <v>960</v>
+      </c>
+      <c r="E113" t="n">
+        <v>959</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5541.4272</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-553800.5267749401</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>960</v>
+      </c>
+      <c r="C114" t="n">
+        <v>962</v>
+      </c>
+      <c r="D114" t="n">
+        <v>962</v>
+      </c>
+      <c r="E114" t="n">
+        <v>960</v>
+      </c>
+      <c r="F114" t="n">
+        <v>443.261</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-553357.26577494</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>962</v>
+      </c>
+      <c r="C115" t="n">
+        <v>962</v>
+      </c>
+      <c r="D115" t="n">
+        <v>962</v>
+      </c>
+      <c r="E115" t="n">
+        <v>962</v>
+      </c>
+      <c r="F115" t="n">
+        <v>89.04989999999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-553357.26577494</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>962</v>
+      </c>
+      <c r="C116" t="n">
+        <v>964</v>
+      </c>
+      <c r="D116" t="n">
+        <v>964</v>
+      </c>
+      <c r="E116" t="n">
+        <v>962</v>
+      </c>
+      <c r="F116" t="n">
+        <v>690</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-552667.26577494</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>963</v>
+      </c>
+      <c r="C117" t="n">
+        <v>963</v>
+      </c>
+      <c r="D117" t="n">
+        <v>963</v>
+      </c>
+      <c r="E117" t="n">
+        <v>963</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2076.84319833</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-554744.10897327</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>959</v>
+      </c>
+      <c r="C118" t="n">
+        <v>957</v>
+      </c>
+      <c r="D118" t="n">
+        <v>959</v>
+      </c>
+      <c r="E118" t="n">
+        <v>957</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1855.9998</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-556600.10877327</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>956.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>956</v>
+      </c>
+      <c r="D119" t="n">
+        <v>957</v>
+      </c>
+      <c r="E119" t="n">
+        <v>956</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2047.8865</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-558647.9952732701</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>956</v>
+      </c>
+      <c r="C120" t="n">
+        <v>956</v>
+      </c>
+      <c r="D120" t="n">
+        <v>956</v>
+      </c>
+      <c r="E120" t="n">
+        <v>956</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2053.1134</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-558647.9952732701</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>956</v>
+      </c>
+      <c r="C121" t="n">
+        <v>956</v>
+      </c>
+      <c r="D121" t="n">
+        <v>959.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>956</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2648.0003</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-558647.9952732701</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>956</v>
+      </c>
+      <c r="C122" t="n">
+        <v>956</v>
+      </c>
+      <c r="D122" t="n">
+        <v>956</v>
+      </c>
+      <c r="E122" t="n">
+        <v>956</v>
+      </c>
+      <c r="F122" t="n">
+        <v>155.8481</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-558647.9952732701</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>956</v>
+      </c>
+      <c r="C123" t="n">
+        <v>958</v>
+      </c>
+      <c r="D123" t="n">
+        <v>958</v>
+      </c>
+      <c r="E123" t="n">
+        <v>956</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3429.3519</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-555218.6433732701</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>958</v>
+      </c>
+      <c r="C124" t="n">
+        <v>958</v>
+      </c>
+      <c r="D124" t="n">
+        <v>958</v>
+      </c>
+      <c r="E124" t="n">
+        <v>957</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1275.6828</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-555218.6433732701</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>956.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>956</v>
+      </c>
+      <c r="D125" t="n">
+        <v>956.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>956</v>
+      </c>
+      <c r="F125" t="n">
+        <v>234.1309</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-555452.77427327</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>955.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>954</v>
+      </c>
+      <c r="D126" t="n">
+        <v>956</v>
+      </c>
+      <c r="E126" t="n">
+        <v>954</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2635.8553</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-558088.6295732701</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>955</v>
+      </c>
+      <c r="C127" t="n">
+        <v>955</v>
+      </c>
+      <c r="D127" t="n">
+        <v>956</v>
+      </c>
+      <c r="E127" t="n">
+        <v>954</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-557041.6295732701</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>955</v>
+      </c>
+      <c r="C128" t="n">
+        <v>955</v>
+      </c>
+      <c r="D128" t="n">
+        <v>955</v>
+      </c>
+      <c r="E128" t="n">
+        <v>954</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1910.716</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-557041.6295732701</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>955</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>953</v>
-      </c>
-      <c r="C86" t="n">
-        <v>952</v>
-      </c>
-      <c r="D86" t="n">
-        <v>953</v>
-      </c>
-      <c r="E86" t="n">
-        <v>952</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1776</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-575646.9305749401</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>953</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>952</v>
-      </c>
-      <c r="C87" t="n">
-        <v>952</v>
-      </c>
-      <c r="D87" t="n">
-        <v>953</v>
-      </c>
-      <c r="E87" t="n">
-        <v>950.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4481.1867</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-575646.9305749401</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>952</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>952</v>
-      </c>
-      <c r="C88" t="n">
-        <v>953</v>
-      </c>
-      <c r="D88" t="n">
-        <v>953</v>
-      </c>
-      <c r="E88" t="n">
-        <v>952</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1845.889</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-573801.0415749401</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>953</v>
-      </c>
-      <c r="C89" t="n">
-        <v>957</v>
-      </c>
-      <c r="D89" t="n">
-        <v>957</v>
-      </c>
-      <c r="E89" t="n">
-        <v>953</v>
-      </c>
-      <c r="F89" t="n">
-        <v>4057.0123</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-569744.0292749401</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>954</v>
-      </c>
-      <c r="C90" t="n">
-        <v>955</v>
-      </c>
-      <c r="D90" t="n">
-        <v>955.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>954</v>
-      </c>
-      <c r="F90" t="n">
-        <v>652.6275000000001</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-570396.6567749401</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>953</v>
-      </c>
-      <c r="D91" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>952</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1978</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-572374.6567749401</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>953</v>
-      </c>
-      <c r="C92" t="n">
-        <v>955</v>
-      </c>
-      <c r="D92" t="n">
-        <v>957</v>
-      </c>
-      <c r="E92" t="n">
-        <v>953</v>
-      </c>
-      <c r="F92" t="n">
-        <v>4355.5822</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-568019.0745749401</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>953.2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>953</v>
-      </c>
-      <c r="D93" t="n">
-        <v>954</v>
-      </c>
-      <c r="E93" t="n">
-        <v>953</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1714.9316</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-569734.0061749402</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>953</v>
-      </c>
-      <c r="C94" t="n">
-        <v>955</v>
-      </c>
-      <c r="D94" t="n">
-        <v>956</v>
-      </c>
-      <c r="E94" t="n">
-        <v>953</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2820.4862</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-566913.5199749401</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>956</v>
-      </c>
-      <c r="C95" t="n">
-        <v>954</v>
-      </c>
-      <c r="D95" t="n">
-        <v>956</v>
-      </c>
-      <c r="E95" t="n">
-        <v>954</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1576.1264</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-568489.6463749401</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>954</v>
-      </c>
-      <c r="C96" t="n">
-        <v>958</v>
-      </c>
-      <c r="D96" t="n">
-        <v>958</v>
-      </c>
-      <c r="E96" t="n">
-        <v>954</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3435.7965</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-565053.84987494</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>955</v>
-      </c>
-      <c r="C97" t="n">
-        <v>956</v>
-      </c>
-      <c r="D97" t="n">
-        <v>958</v>
-      </c>
-      <c r="E97" t="n">
-        <v>955</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2501.1292</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-567554.97907494</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>955</v>
-      </c>
-      <c r="C98" t="n">
-        <v>956</v>
-      </c>
-      <c r="D98" t="n">
-        <v>958</v>
-      </c>
-      <c r="E98" t="n">
-        <v>955</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5104.9296</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-567554.97907494</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>955</v>
-      </c>
-      <c r="C99" t="n">
-        <v>955</v>
-      </c>
-      <c r="D99" t="n">
-        <v>958</v>
-      </c>
-      <c r="E99" t="n">
-        <v>954</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1804.0307</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-569359.00977494</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>954</v>
-      </c>
-      <c r="C100" t="n">
-        <v>958</v>
-      </c>
-      <c r="D100" t="n">
-        <v>958</v>
-      </c>
-      <c r="E100" t="n">
-        <v>954</v>
-      </c>
-      <c r="F100" t="n">
-        <v>3006.7775</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-566352.23227494</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>956</v>
-      </c>
-      <c r="C101" t="n">
-        <v>956</v>
-      </c>
-      <c r="D101" t="n">
-        <v>956</v>
-      </c>
-      <c r="E101" t="n">
-        <v>955</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1602</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-567954.23227494</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>956</v>
-      </c>
-      <c r="C102" t="n">
-        <v>956</v>
-      </c>
-      <c r="D102" t="n">
-        <v>956</v>
-      </c>
-      <c r="E102" t="n">
-        <v>954</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1519</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-567954.23227494</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>956</v>
-      </c>
-      <c r="C103" t="n">
-        <v>953</v>
-      </c>
-      <c r="D103" t="n">
-        <v>956</v>
-      </c>
-      <c r="E103" t="n">
-        <v>953</v>
-      </c>
-      <c r="F103" t="n">
-        <v>847.7182</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>953</v>
-      </c>
-      <c r="C104" t="n">
-        <v>953</v>
-      </c>
-      <c r="D104" t="n">
-        <v>953</v>
-      </c>
-      <c r="E104" t="n">
-        <v>953</v>
-      </c>
-      <c r="F104" t="n">
-        <v>903.0958000000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>953</v>
-      </c>
-      <c r="C105" t="n">
-        <v>953</v>
-      </c>
-      <c r="D105" t="n">
-        <v>953</v>
-      </c>
-      <c r="E105" t="n">
-        <v>953</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1896.4616</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>953</v>
-      </c>
-      <c r="C106" t="n">
-        <v>954</v>
-      </c>
-      <c r="D106" t="n">
-        <v>954</v>
-      </c>
-      <c r="E106" t="n">
-        <v>953</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3712.1902</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-565089.7602749401</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>954</v>
-      </c>
-      <c r="C107" t="n">
-        <v>954</v>
-      </c>
-      <c r="D107" t="n">
-        <v>954.1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>954</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1642.7988</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-565089.7602749401</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>954</v>
-      </c>
-      <c r="C108" t="n">
-        <v>959</v>
-      </c>
-      <c r="D108" t="n">
-        <v>959</v>
-      </c>
-      <c r="E108" t="n">
-        <v>954</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3967.7354</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-561122.02487494</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>955</v>
-      </c>
-      <c r="C109" t="n">
-        <v>959</v>
-      </c>
-      <c r="D109" t="n">
-        <v>959</v>
-      </c>
-      <c r="E109" t="n">
-        <v>955</v>
-      </c>
-      <c r="F109" t="n">
-        <v>523.953</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-561122.02487494</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>958</v>
-      </c>
-      <c r="C110" t="n">
-        <v>958</v>
-      </c>
-      <c r="D110" t="n">
-        <v>958</v>
-      </c>
-      <c r="E110" t="n">
-        <v>958</v>
-      </c>
-      <c r="F110" t="n">
-        <v>395.496</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-561517.5208749401</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>959</v>
-      </c>
-      <c r="C111" t="n">
-        <v>959</v>
-      </c>
-      <c r="D111" t="n">
-        <v>959</v>
-      </c>
-      <c r="E111" t="n">
-        <v>959</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2175.5669</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-559341.9539749401</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>959</v>
-      </c>
-      <c r="C112" t="n">
-        <v>959</v>
-      </c>
-      <c r="D112" t="n">
-        <v>959</v>
-      </c>
-      <c r="E112" t="n">
-        <v>959</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1195</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-559341.9539749401</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>959</v>
-      </c>
-      <c r="C113" t="n">
-        <v>960</v>
-      </c>
-      <c r="D113" t="n">
-        <v>960</v>
-      </c>
-      <c r="E113" t="n">
-        <v>959</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5541.4272</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-553800.5267749401</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>960</v>
-      </c>
-      <c r="C114" t="n">
-        <v>962</v>
-      </c>
-      <c r="D114" t="n">
-        <v>962</v>
-      </c>
-      <c r="E114" t="n">
-        <v>960</v>
-      </c>
-      <c r="F114" t="n">
-        <v>443.261</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-553357.26577494</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>962</v>
-      </c>
-      <c r="C115" t="n">
-        <v>962</v>
-      </c>
-      <c r="D115" t="n">
-        <v>962</v>
-      </c>
-      <c r="E115" t="n">
-        <v>962</v>
-      </c>
-      <c r="F115" t="n">
-        <v>89.04989999999999</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-553357.26577494</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>962</v>
-      </c>
-      <c r="C116" t="n">
-        <v>964</v>
-      </c>
-      <c r="D116" t="n">
-        <v>964</v>
-      </c>
-      <c r="E116" t="n">
-        <v>962</v>
-      </c>
-      <c r="F116" t="n">
-        <v>690</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-552667.26577494</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>963</v>
-      </c>
-      <c r="C117" t="n">
-        <v>963</v>
-      </c>
-      <c r="D117" t="n">
-        <v>963</v>
-      </c>
-      <c r="E117" t="n">
-        <v>963</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2076.84319833</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-554744.10897327</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>959</v>
-      </c>
-      <c r="C118" t="n">
-        <v>957</v>
-      </c>
-      <c r="D118" t="n">
-        <v>959</v>
-      </c>
-      <c r="E118" t="n">
-        <v>957</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1855.9998</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-556600.10877327</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>956.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>956</v>
-      </c>
-      <c r="D119" t="n">
-        <v>957</v>
-      </c>
-      <c r="E119" t="n">
-        <v>956</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2047.8865</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>956</v>
-      </c>
-      <c r="C120" t="n">
-        <v>956</v>
-      </c>
-      <c r="D120" t="n">
-        <v>956</v>
-      </c>
-      <c r="E120" t="n">
-        <v>956</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2053.1134</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>956</v>
-      </c>
-      <c r="C121" t="n">
-        <v>956</v>
-      </c>
-      <c r="D121" t="n">
-        <v>959.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>956</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2648.0003</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>956</v>
-      </c>
-      <c r="C122" t="n">
-        <v>956</v>
-      </c>
-      <c r="D122" t="n">
-        <v>956</v>
-      </c>
-      <c r="E122" t="n">
-        <v>956</v>
-      </c>
-      <c r="F122" t="n">
-        <v>155.8481</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>956</v>
-      </c>
-      <c r="C123" t="n">
-        <v>958</v>
-      </c>
-      <c r="D123" t="n">
-        <v>958</v>
-      </c>
-      <c r="E123" t="n">
-        <v>956</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3429.3519</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-555218.6433732701</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>958</v>
-      </c>
-      <c r="C124" t="n">
-        <v>958</v>
-      </c>
-      <c r="D124" t="n">
-        <v>958</v>
-      </c>
-      <c r="E124" t="n">
-        <v>957</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1275.6828</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-555218.6433732701</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>956.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>956</v>
-      </c>
-      <c r="D125" t="n">
-        <v>956.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>956</v>
-      </c>
-      <c r="F125" t="n">
-        <v>234.1309</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-555452.77427327</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>955.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>954</v>
-      </c>
-      <c r="D126" t="n">
-        <v>956</v>
-      </c>
-      <c r="E126" t="n">
-        <v>954</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2635.8553</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-558088.6295732701</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>955</v>
-      </c>
-      <c r="C127" t="n">
-        <v>955</v>
-      </c>
-      <c r="D127" t="n">
-        <v>956</v>
-      </c>
-      <c r="E127" t="n">
-        <v>954</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1047</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-557041.6295732701</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>955</v>
-      </c>
-      <c r="C128" t="n">
-        <v>955</v>
-      </c>
-      <c r="D128" t="n">
-        <v>955</v>
-      </c>
-      <c r="E128" t="n">
-        <v>954</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1910.716</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-557041.6295732701</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4824,9 +4648,11 @@
         <v>-553458.6249732701</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>955</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4861,9 +4687,11 @@
         <v>-555338.6249732701</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>956</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4898,9 +4726,11 @@
         <v>-557023.6249732701</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>954</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -4935,9 +4765,11 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>952.2</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -4972,9 +4804,11 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>951</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5009,9 +4843,11 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>956</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5046,9 +4882,11 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>951.1</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5083,9 +4921,11 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>954</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>

--- a/BackTest/2020-01-15 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-15 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.6891</v>
       </c>
       <c r="G2" t="n">
-        <v>-11529.4997</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>529202.6891</v>
       </c>
       <c r="G3" t="n">
-        <v>-540732.1888</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6836.1817</v>
       </c>
       <c r="G4" t="n">
-        <v>-547568.3705</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.9974</v>
       </c>
       <c r="G5" t="n">
-        <v>-547567.3731</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2518.323</v>
       </c>
       <c r="G6" t="n">
-        <v>-545049.0501</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>48.7911</v>
       </c>
       <c r="G7" t="n">
-        <v>-545049.0501</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>464.8704</v>
       </c>
       <c r="G8" t="n">
-        <v>-545513.9205</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>730</v>
       </c>
       <c r="G9" t="n">
-        <v>-544783.9205</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>930.5081</v>
       </c>
       <c r="G10" t="n">
-        <v>-543853.4124</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1311.134</v>
       </c>
       <c r="G11" t="n">
-        <v>-542542.2784000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>257.0926</v>
       </c>
       <c r="G12" t="n">
-        <v>-542799.371</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>164.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-542963.7710000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>205.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-542963.7710000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>164.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-542963.7710000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>328.8</v>
       </c>
       <c r="G16" t="n">
-        <v>-542963.7710000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>414.07867494</v>
       </c>
       <c r="G17" t="n">
-        <v>-543377.8496749401</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3878.035</v>
       </c>
       <c r="G18" t="n">
-        <v>-543377.8496749401</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3701.937</v>
       </c>
       <c r="G19" t="n">
-        <v>-547079.7866749401</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>601.967</v>
       </c>
       <c r="G20" t="n">
-        <v>-547681.7536749401</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>590.5518</v>
       </c>
       <c r="G21" t="n">
-        <v>-548272.3054749401</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11.4152</v>
       </c>
       <c r="G22" t="n">
-        <v>-548283.7206749402</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>-548259.7206749402</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7.9538</v>
       </c>
       <c r="G24" t="n">
-        <v>-548251.7668749401</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7.9538</v>
       </c>
       <c r="G25" t="n">
-        <v>-548259.7206749402</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-548254.7206749402</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>-548209.7206749402</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>101.4691</v>
       </c>
       <c r="G28" t="n">
-        <v>-548108.2515749402</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>152</v>
       </c>
       <c r="G29" t="n">
-        <v>-548260.2515749402</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>30.0462</v>
       </c>
       <c r="G30" t="n">
-        <v>-548230.2053749402</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-548220.2053749402</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>-548220.2053749402</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1058.5301</v>
       </c>
       <c r="G33" t="n">
-        <v>-547161.6752749402</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>96.6986</v>
       </c>
       <c r="G34" t="n">
-        <v>-547161.6752749402</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>122.09</v>
       </c>
       <c r="G35" t="n">
-        <v>-547283.7652749402</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>677.91</v>
       </c>
       <c r="G36" t="n">
-        <v>-546605.8552749401</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>133.5488</v>
       </c>
       <c r="G37" t="n">
-        <v>-546605.8552749401</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>44.6158</v>
       </c>
       <c r="G38" t="n">
-        <v>-546561.2394749401</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2065.2387</v>
       </c>
       <c r="G39" t="n">
-        <v>-548626.4781749401</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>373.8802</v>
       </c>
       <c r="G40" t="n">
-        <v>-548626.4781749401</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>49.4501</v>
       </c>
       <c r="G41" t="n">
-        <v>-548626.4781749401</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>-548626.4781749401</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>14.5797</v>
       </c>
       <c r="G43" t="n">
-        <v>-548626.4781749401</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5203.4571</v>
       </c>
       <c r="G44" t="n">
-        <v>-553829.9352749401</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>284.3783</v>
       </c>
       <c r="G45" t="n">
-        <v>-554114.3135749401</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>288.8633</v>
       </c>
       <c r="G46" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>123.3</v>
       </c>
       <c r="G47" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>452.4737</v>
       </c>
       <c r="G48" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>115.6155</v>
       </c>
       <c r="G49" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2820.196</v>
       </c>
       <c r="G50" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1021.7399</v>
       </c>
       <c r="G51" t="n">
-        <v>-554403.1768749401</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1648.1227</v>
       </c>
       <c r="G52" t="n">
-        <v>-552755.0541749401</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>575.2128</v>
       </c>
       <c r="G53" t="n">
-        <v>-552755.0541749401</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>35</v>
       </c>
       <c r="G54" t="n">
-        <v>-552720.0541749401</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10.7513</v>
       </c>
       <c r="G55" t="n">
-        <v>-552709.3028749401</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>60.19</v>
       </c>
       <c r="G56" t="n">
-        <v>-552769.49287494</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2.5089</v>
       </c>
       <c r="G57" t="n">
-        <v>-552769.49287494</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>993.1122</v>
       </c>
       <c r="G58" t="n">
-        <v>-553762.60507494</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>129.554</v>
       </c>
       <c r="G59" t="n">
-        <v>-553762.60507494</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>402.2146</v>
       </c>
       <c r="G60" t="n">
-        <v>-553762.60507494</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>196.1424</v>
       </c>
       <c r="G61" t="n">
-        <v>-553762.60507494</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>829.5318</v>
       </c>
       <c r="G62" t="n">
-        <v>-554592.13687494</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>80</v>
       </c>
       <c r="G63" t="n">
-        <v>-554672.13687494</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>49.7256</v>
       </c>
       <c r="G64" t="n">
-        <v>-554721.86247494</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2488.8268</v>
       </c>
       <c r="G65" t="n">
-        <v>-557210.6892749401</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3145.5101</v>
       </c>
       <c r="G66" t="n">
-        <v>-557210.6892749401</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2464.252</v>
       </c>
       <c r="G67" t="n">
-        <v>-554746.4372749401</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2620.381</v>
       </c>
       <c r="G68" t="n">
-        <v>-557366.8182749401</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1490.2257</v>
       </c>
       <c r="G69" t="n">
-        <v>-558857.0439749401</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1206</v>
       </c>
       <c r="G70" t="n">
-        <v>-560063.0439749401</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>540.0229</v>
       </c>
       <c r="G71" t="n">
-        <v>-560063.0439749401</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>702.1563</v>
       </c>
       <c r="G72" t="n">
-        <v>-560765.2002749401</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1252</v>
       </c>
       <c r="G73" t="n">
-        <v>-560765.2002749401</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1522.0243</v>
       </c>
       <c r="G74" t="n">
-        <v>-559243.1759749401</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1652.9186</v>
       </c>
       <c r="G75" t="n">
-        <v>-559243.1759749401</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>308</v>
       </c>
       <c r="G76" t="n">
-        <v>-559551.1759749401</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2435.0524</v>
       </c>
       <c r="G77" t="n">
-        <v>-561986.2283749401</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2760.9391</v>
       </c>
       <c r="G78" t="n">
-        <v>-564747.1674749401</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>25</v>
       </c>
       <c r="G79" t="n">
-        <v>-564722.1674749401</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1074.9662</v>
       </c>
       <c r="G80" t="n">
-        <v>-564722.1674749401</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>4950.4684</v>
       </c>
       <c r="G81" t="n">
-        <v>-569672.6358749401</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4198.2947</v>
       </c>
       <c r="G82" t="n">
-        <v>-573870.9305749401</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1058.8327</v>
       </c>
       <c r="G83" t="n">
-        <v>-573870.9305749401</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1084.055</v>
       </c>
       <c r="G84" t="n">
-        <v>-573870.9305749401</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1782.5592</v>
       </c>
       <c r="G85" t="n">
-        <v>-573870.9305749401</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1776</v>
       </c>
       <c r="G86" t="n">
-        <v>-575646.9305749401</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4481.1867</v>
       </c>
       <c r="G87" t="n">
-        <v>-575646.9305749401</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,21 @@
         <v>1845.889</v>
       </c>
       <c r="G88" t="n">
-        <v>-573801.0415749401</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3059,21 @@
         <v>4057.0123</v>
       </c>
       <c r="G89" t="n">
-        <v>-569744.0292749401</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3095,21 @@
         <v>652.6275000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-570396.6567749401</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,21 @@
         <v>1978</v>
       </c>
       <c r="G91" t="n">
-        <v>-572374.6567749401</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3167,21 @@
         <v>4355.5822</v>
       </c>
       <c r="G92" t="n">
-        <v>-568019.0745749401</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3203,21 @@
         <v>1714.9316</v>
       </c>
       <c r="G93" t="n">
-        <v>-569734.0061749402</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3239,21 @@
         <v>2820.4862</v>
       </c>
       <c r="G94" t="n">
-        <v>-566913.5199749401</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3275,21 @@
         <v>1576.1264</v>
       </c>
       <c r="G95" t="n">
-        <v>-568489.6463749401</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3311,21 @@
         <v>3435.7965</v>
       </c>
       <c r="G96" t="n">
-        <v>-565053.84987494</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3347,19 @@
         <v>2501.1292</v>
       </c>
       <c r="G97" t="n">
-        <v>-567554.97907494</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3381,19 @@
         <v>5104.9296</v>
       </c>
       <c r="G98" t="n">
-        <v>-567554.97907494</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3415,19 @@
         <v>1804.0307</v>
       </c>
       <c r="G99" t="n">
-        <v>-569359.00977494</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3449,19 @@
         <v>3006.7775</v>
       </c>
       <c r="G100" t="n">
-        <v>-566352.23227494</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3483,19 @@
         <v>1602</v>
       </c>
       <c r="G101" t="n">
-        <v>-567954.23227494</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3517,19 @@
         <v>1519</v>
       </c>
       <c r="G102" t="n">
-        <v>-567954.23227494</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3551,19 @@
         <v>847.7182</v>
       </c>
       <c r="G103" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3585,19 @@
         <v>903.0958000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3619,19 @@
         <v>1896.4616</v>
       </c>
       <c r="G105" t="n">
-        <v>-568801.95047494</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3653,19 @@
         <v>3712.1902</v>
       </c>
       <c r="G106" t="n">
-        <v>-565089.7602749401</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3687,19 @@
         <v>1642.7988</v>
       </c>
       <c r="G107" t="n">
-        <v>-565089.7602749401</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3721,19 @@
         <v>3967.7354</v>
       </c>
       <c r="G108" t="n">
-        <v>-561122.02487494</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3755,19 @@
         <v>523.953</v>
       </c>
       <c r="G109" t="n">
-        <v>-561122.02487494</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3789,19 @@
         <v>395.496</v>
       </c>
       <c r="G110" t="n">
-        <v>-561517.5208749401</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3823,19 @@
         <v>2175.5669</v>
       </c>
       <c r="G111" t="n">
-        <v>-559341.9539749401</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3857,19 @@
         <v>1195</v>
       </c>
       <c r="G112" t="n">
-        <v>-559341.9539749401</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3891,19 @@
         <v>5541.4272</v>
       </c>
       <c r="G113" t="n">
-        <v>-553800.5267749401</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3925,19 @@
         <v>443.261</v>
       </c>
       <c r="G114" t="n">
-        <v>-553357.26577494</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3959,19 @@
         <v>89.04989999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-553357.26577494</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3993,19 @@
         <v>690</v>
       </c>
       <c r="G116" t="n">
-        <v>-552667.26577494</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4027,19 @@
         <v>2076.84319833</v>
       </c>
       <c r="G117" t="n">
-        <v>-554744.10897327</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4061,19 @@
         <v>1855.9998</v>
       </c>
       <c r="G118" t="n">
-        <v>-556600.10877327</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4095,19 @@
         <v>2047.8865</v>
       </c>
       <c r="G119" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4129,19 @@
         <v>2053.1134</v>
       </c>
       <c r="G120" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4163,19 @@
         <v>2648.0003</v>
       </c>
       <c r="G121" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4197,19 @@
         <v>155.8481</v>
       </c>
       <c r="G122" t="n">
-        <v>-558647.9952732701</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4231,19 @@
         <v>3429.3519</v>
       </c>
       <c r="G123" t="n">
-        <v>-555218.6433732701</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4265,19 @@
         <v>1275.6828</v>
       </c>
       <c r="G124" t="n">
-        <v>-555218.6433732701</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4299,19 @@
         <v>234.1309</v>
       </c>
       <c r="G125" t="n">
-        <v>-555452.77427327</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4333,19 @@
         <v>2635.8553</v>
       </c>
       <c r="G126" t="n">
-        <v>-558088.6295732701</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4367,19 @@
         <v>1047</v>
       </c>
       <c r="G127" t="n">
-        <v>-557041.6295732701</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,24 +4401,19 @@
         <v>1910.716</v>
       </c>
       <c r="G128" t="n">
-        <v>-557041.6295732701</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>955</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4645,24 +4435,19 @@
         <v>3583.0046</v>
       </c>
       <c r="G129" t="n">
-        <v>-553458.6249732701</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>955</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4684,24 +4469,19 @@
         <v>1880</v>
       </c>
       <c r="G130" t="n">
-        <v>-555338.6249732701</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>956</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4723,24 +4503,19 @@
         <v>1685</v>
       </c>
       <c r="G131" t="n">
-        <v>-557023.6249732701</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>954</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4762,24 +4537,19 @@
         <v>1837.2547</v>
       </c>
       <c r="G132" t="n">
-        <v>-558860.8796732702</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>952.2</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4801,24 +4571,19 @@
         <v>2403</v>
       </c>
       <c r="G133" t="n">
-        <v>-556457.8796732702</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>951</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4840,24 +4605,19 @@
         <v>2620.9835</v>
       </c>
       <c r="G134" t="n">
-        <v>-559078.8631732701</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>956</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4879,24 +4639,19 @@
         <v>2350</v>
       </c>
       <c r="G135" t="n">
-        <v>-556728.8631732701</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>951.1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4918,24 +4673,19 @@
         <v>1389.7618</v>
       </c>
       <c r="G136" t="n">
-        <v>-555339.1013732702</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>954</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
